--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.009318000000000002</v>
+        <v>0.009318</v>
       </c>
       <c r="H2">
         <v>0.027954</v>
       </c>
       <c r="I2">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="J2">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N2">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O2">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P2">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q2">
-        <v>0.213955809868</v>
+        <v>0.307884964644</v>
       </c>
       <c r="R2">
-        <v>1.925602288812</v>
+        <v>2.770964681796</v>
       </c>
       <c r="S2">
-        <v>0.08471105354016624</v>
+        <v>0.1468277294170844</v>
       </c>
       <c r="T2">
-        <v>0.08471105354016625</v>
+        <v>0.1468277294170844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.009318000000000002</v>
+        <v>0.009318</v>
       </c>
       <c r="H3">
         <v>0.027954</v>
       </c>
       <c r="I3">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="J3">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N3">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O3">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P3">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q3">
-        <v>0.05943793794000001</v>
+        <v>0.02406085263199999</v>
       </c>
       <c r="R3">
-        <v>0.53494144146</v>
+        <v>0.216547673688</v>
       </c>
       <c r="S3">
-        <v>0.02353313212788562</v>
+        <v>0.01147441663440931</v>
       </c>
       <c r="T3">
-        <v>0.02353313212788562</v>
+        <v>0.01147441663440931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.009318000000000002</v>
+        <v>0.009318</v>
       </c>
       <c r="H4">
         <v>0.027954</v>
       </c>
       <c r="I4">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="J4">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N4">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O4">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P4">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q4">
-        <v>0.00241831607</v>
+        <v>0.00236338646</v>
       </c>
       <c r="R4">
-        <v>0.02176484463</v>
+        <v>0.02127047814</v>
       </c>
       <c r="S4">
-        <v>0.0009574785662946082</v>
+        <v>0.001127078966191548</v>
       </c>
       <c r="T4">
-        <v>0.0009574785662946082</v>
+        <v>0.001127078966191548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.009318000000000002</v>
+        <v>0.009318</v>
       </c>
       <c r="H5">
         <v>0.027954</v>
       </c>
       <c r="I5">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="J5">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N5">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O5">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P5">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q5">
-        <v>0.010380584342</v>
+        <v>0.018008668756</v>
       </c>
       <c r="R5">
-        <v>0.09342525907800001</v>
+        <v>0.162078018804</v>
       </c>
       <c r="S5">
-        <v>0.004109961942682877</v>
+        <v>0.008588181453827282</v>
       </c>
       <c r="T5">
-        <v>0.004109961942682877</v>
+        <v>0.008588181453827282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.009318000000000002</v>
+        <v>0.009318</v>
       </c>
       <c r="H6">
         <v>0.027954</v>
       </c>
       <c r="I6">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="J6">
-        <v>0.1543072897691518</v>
+        <v>0.1755772177976535</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N6">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O6">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P6">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q6">
-        <v>0.103543280816</v>
+        <v>0.015852266136</v>
       </c>
       <c r="R6">
-        <v>0.9318895273440002</v>
+        <v>0.142670395224</v>
       </c>
       <c r="S6">
-        <v>0.04099566359212247</v>
+        <v>0.007559811326140951</v>
       </c>
       <c r="T6">
-        <v>0.04099566359212247</v>
+        <v>0.007559811326140951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04109566666666666</v>
+        <v>0.03948166666666666</v>
       </c>
       <c r="H7">
-        <v>0.123287</v>
+        <v>0.118445</v>
       </c>
       <c r="I7">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="J7">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N7">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O7">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P7">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q7">
-        <v>0.9436205885095553</v>
+        <v>1.30455157177</v>
       </c>
       <c r="R7">
-        <v>8.492585296585998</v>
+        <v>11.74096414593</v>
       </c>
       <c r="S7">
-        <v>0.3736056255922756</v>
+        <v>0.622129584703676</v>
       </c>
       <c r="T7">
-        <v>0.3736056255922757</v>
+        <v>0.622129584703676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04109566666666666</v>
+        <v>0.03948166666666666</v>
       </c>
       <c r="H8">
-        <v>0.123287</v>
+        <v>0.118445</v>
       </c>
       <c r="I8">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="J8">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N8">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O8">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P8">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q8">
-        <v>0.2621422714033333</v>
+        <v>0.1019491911711111</v>
       </c>
       <c r="R8">
-        <v>2.35928044263</v>
+        <v>0.9175427205399999</v>
       </c>
       <c r="S8">
-        <v>0.1037894133451611</v>
+        <v>0.0486187049532307</v>
       </c>
       <c r="T8">
-        <v>0.1037894133451611</v>
+        <v>0.04861870495323072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04109566666666666</v>
+        <v>0.03948166666666666</v>
       </c>
       <c r="H9">
-        <v>0.123287</v>
+        <v>0.118445</v>
       </c>
       <c r="I9">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="J9">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N9">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O9">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P9">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q9">
-        <v>0.01066562686277778</v>
+        <v>0.01001399832777778</v>
       </c>
       <c r="R9">
-        <v>0.09599064176499998</v>
+        <v>0.09012598494999999</v>
       </c>
       <c r="S9">
-        <v>0.004222818201429611</v>
+        <v>0.004775590904720538</v>
       </c>
       <c r="T9">
-        <v>0.004222818201429611</v>
+        <v>0.004775590904720538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.04109566666666666</v>
+        <v>0.03948166666666666</v>
       </c>
       <c r="H10">
-        <v>0.123287</v>
+        <v>0.118445</v>
       </c>
       <c r="I10">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="J10">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N10">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O10">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P10">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q10">
-        <v>0.04578203841211111</v>
+        <v>0.07630524328555555</v>
       </c>
       <c r="R10">
-        <v>0.412038345709</v>
+        <v>0.68674718957</v>
       </c>
       <c r="S10">
-        <v>0.01812638184258223</v>
+        <v>0.03638932361374302</v>
       </c>
       <c r="T10">
-        <v>0.01812638184258223</v>
+        <v>0.03638932361374302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.04109566666666666</v>
+        <v>0.03948166666666666</v>
       </c>
       <c r="H11">
-        <v>0.123287</v>
+        <v>0.118445</v>
       </c>
       <c r="I11">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="J11">
-        <v>0.680549575508672</v>
+        <v>0.743945180011557</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N11">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O11">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P11">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q11">
-        <v>0.4566623904257777</v>
+        <v>0.06716826438</v>
       </c>
       <c r="R11">
-        <v>4.109961513832</v>
+        <v>0.60451437942</v>
       </c>
       <c r="S11">
-        <v>0.1808053365272234</v>
+        <v>0.03203197583618677</v>
       </c>
       <c r="T11">
-        <v>0.1808053365272234</v>
+        <v>0.03203197583618677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.009972333333333335</v>
+        <v>0.004271</v>
       </c>
       <c r="H12">
-        <v>0.029917</v>
+        <v>0.012813</v>
       </c>
       <c r="I12">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="J12">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.96155933333333</v>
+        <v>33.041958</v>
       </c>
       <c r="N12">
-        <v>68.88467799999999</v>
+        <v>99.125874</v>
       </c>
       <c r="O12">
-        <v>0.5489763553419701</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="P12">
-        <v>0.5489763553419702</v>
+        <v>0.8362572961276681</v>
       </c>
       <c r="Q12">
-        <v>0.2289803235251111</v>
+        <v>0.141122202618</v>
       </c>
       <c r="R12">
-        <v>2.060822911726</v>
+        <v>1.270099823562</v>
       </c>
       <c r="S12">
-        <v>0.09065967620952828</v>
+        <v>0.06729998200690784</v>
       </c>
       <c r="T12">
-        <v>0.09065967620952829</v>
+        <v>0.06729998200690784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.009972333333333335</v>
+        <v>0.004271</v>
       </c>
       <c r="H13">
-        <v>0.029917</v>
+        <v>0.012813</v>
       </c>
       <c r="I13">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="J13">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.37883</v>
+        <v>2.582190666666666</v>
       </c>
       <c r="N13">
-        <v>19.13649</v>
+        <v>7.746571999999999</v>
       </c>
       <c r="O13">
-        <v>0.152508233169618</v>
+        <v>0.06535253706795362</v>
       </c>
       <c r="P13">
-        <v>0.1525082331696181</v>
+        <v>0.06535253706795363</v>
       </c>
       <c r="Q13">
-        <v>0.06361181903666667</v>
+        <v>0.01102853633733333</v>
       </c>
       <c r="R13">
-        <v>0.57250637133</v>
+        <v>0.09925682703599999</v>
       </c>
       <c r="S13">
-        <v>0.0251856876965713</v>
+        <v>0.005259415480313606</v>
       </c>
       <c r="T13">
-        <v>0.02518568769657131</v>
+        <v>0.005259415480313607</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.009972333333333335</v>
+        <v>0.004271</v>
       </c>
       <c r="H14">
-        <v>0.029917</v>
+        <v>0.012813</v>
       </c>
       <c r="I14">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="J14">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2595316666666667</v>
+        <v>0.2536366666666667</v>
       </c>
       <c r="N14">
-        <v>0.7785949999999999</v>
+        <v>0.76091</v>
       </c>
       <c r="O14">
-        <v>0.006205011880689654</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="P14">
-        <v>0.006205011880689655</v>
+        <v>0.006419277969710552</v>
       </c>
       <c r="Q14">
-        <v>0.002588136290555556</v>
+        <v>0.001083282203333333</v>
       </c>
       <c r="R14">
-        <v>0.023293226615</v>
+        <v>0.009749539829999999</v>
       </c>
       <c r="S14">
-        <v>0.001024715112965436</v>
+        <v>0.0005166080987984656</v>
       </c>
       <c r="T14">
-        <v>0.001024715112965436</v>
+        <v>0.0005166080987984656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.009972333333333335</v>
+        <v>0.004271</v>
       </c>
       <c r="H15">
-        <v>0.029917</v>
+        <v>0.012813</v>
       </c>
       <c r="I15">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="J15">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.114035666666667</v>
+        <v>1.932675333333333</v>
       </c>
       <c r="N15">
-        <v>3.342107</v>
+        <v>5.798026</v>
       </c>
       <c r="O15">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969482</v>
       </c>
       <c r="P15">
-        <v>0.02663491756501912</v>
+        <v>0.04891398531969483</v>
       </c>
       <c r="Q15">
-        <v>0.01110953501322222</v>
+        <v>0.008254456348666665</v>
       </c>
       <c r="R15">
-        <v>0.09998581511900001</v>
+        <v>0.07429010713799999</v>
       </c>
       <c r="S15">
-        <v>0.004398573779754011</v>
+        <v>0.003936480252124524</v>
       </c>
       <c r="T15">
-        <v>0.004398573779754012</v>
+        <v>0.003936480252124524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.009972333333333335</v>
+        <v>0.004271</v>
       </c>
       <c r="H16">
-        <v>0.029917</v>
+        <v>0.012813</v>
       </c>
       <c r="I16">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="J16">
-        <v>0.1651431347221763</v>
+        <v>0.08047760219078964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.11217866666667</v>
+        <v>1.701252</v>
       </c>
       <c r="N16">
-        <v>33.336536</v>
+        <v>5.103756</v>
       </c>
       <c r="O16">
-        <v>0.265675482042703</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="P16">
-        <v>0.2656754820427031</v>
+        <v>0.04305690351497292</v>
       </c>
       <c r="Q16">
-        <v>0.1108143497235556</v>
+        <v>0.007266047291999999</v>
       </c>
       <c r="R16">
-        <v>0.9973291475120002</v>
+        <v>0.06539442562799999</v>
       </c>
       <c r="S16">
-        <v>0.04387448192335722</v>
+        <v>0.003465116352645203</v>
       </c>
       <c r="T16">
-        <v>0.04387448192335724</v>
+        <v>0.003465116352645203</v>
       </c>
     </row>
   </sheetData>
